--- a/Daily.xlsx
+++ b/Daily.xlsx
@@ -1,81 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Documents\IngSoftwareAgil\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEFCCB-B1B2-49EB-BA71-26AA9B8C54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Iteración 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteración 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteración 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteración 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Iteracion 1</t>
-  </si>
-  <si>
-    <t>Iteracion 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Victoria Dieste</t>
+  </si>
+  <si>
+    <t>Gustavo Alfonso</t>
+  </si>
+  <si>
+    <t>Ignacio Vallarino</t>
+  </si>
+  <si>
+    <t>Danilo Fraque</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>Semana 5</t>
+  </si>
+  <si>
+    <t>Semana 6</t>
+  </si>
+  <si>
+    <t>Semana 7</t>
+  </si>
+  <si>
+    <t>Semana 8</t>
+  </si>
+  <si>
+    <t>Reunión inicial</t>
+  </si>
+  <si>
+    <t>Reunión: Identificación del problema</t>
+  </si>
+  <si>
+    <t>Reunión: Definición del problema y tareas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -265,94 +413,578 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5.0</v>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F75200F-7A6C-426A-948D-F53BF09095AF}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E67A5F-07E3-444F-9905-694094ECCEAA}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D53D2D0-CC7C-4309-A73F-7AA2AC3245C1}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daily.xlsx
+++ b/Daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Documents\IngSoftwareAgil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEFCCB-B1B2-49EB-BA71-26AA9B8C54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EAB032-BC88-4055-AA0D-EE2690D10928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="Iteración 2" sheetId="2" r:id="rId2"/>
     <sheet name="Iteración 3" sheetId="3" r:id="rId3"/>
     <sheet name="Iteración 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Trello" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Semana 1</t>
   </si>
@@ -61,20 +62,141 @@
     <t>Semana 8</t>
   </si>
   <si>
-    <t>Reunión inicial</t>
-  </si>
-  <si>
-    <t>Reunión: Identificación del problema</t>
-  </si>
-  <si>
-    <t>Reunión: Definición del problema y tareas</t>
+    <t>Lunes 20/09</t>
+  </si>
+  <si>
+    <t>Miércoles 22/09</t>
+  </si>
+  <si>
+    <t>Viernes 24/09</t>
+  </si>
+  <si>
+    <t>Lunes 27/09</t>
+  </si>
+  <si>
+    <t>Miércoles 29/09</t>
+  </si>
+  <si>
+    <t>Viernes 01/10</t>
+  </si>
+  <si>
+    <t>Ceremonia</t>
+  </si>
+  <si>
+    <t>Viernes 17/09</t>
+  </si>
+  <si>
+    <t>Sprint planning</t>
+  </si>
+  <si>
+    <t>Definición del marco de trabajo</t>
+  </si>
+  <si>
+    <t>Daily meeting</t>
+  </si>
+  <si>
+    <t>Sprint retrospective</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
+  </si>
+  <si>
+    <t>Lunes 04/10</t>
+  </si>
+  <si>
+    <t>Definición del product backlog con épicas, historias de usuario para trabajar en el sprint, criterios de aceptación, estimación de tareas.</t>
+  </si>
+  <si>
+    <t>Se definió el marco general de trabajo. 
+Se definieron:
+- políticas generales de trabajo
+- artefactos y ceremonias a utilizar
+- los roles de cada integrante del equipo
+-  se justificó la adopción de Scrum como marco de trabajo</t>
+  </si>
+  <si>
+    <t>Daily (Miércoles 22/09)</t>
+  </si>
+  <si>
+    <t>Daily (Viernes 24/09)</t>
+  </si>
+  <si>
+    <t>Esperando por dependencia de tarea.</t>
+  </si>
+  <si>
+    <t>Estoy definiendo las funcionalidades por interesado</t>
+  </si>
+  <si>
+    <t>Estoy creando el mapa de interesados</t>
+  </si>
+  <si>
+    <t>Ya definí el problema de forma concreta.
+Estoy trancado con la identificación de la solución.
+Voy a trabajar en acotar la solución.</t>
+  </si>
+  <si>
+    <t>Confeccioné la lista de interesados.
+Estoy trancado con la identificación de los interesados directos e indirectos.
+Voy a trabajar en clasificarlos.</t>
+  </si>
+  <si>
+    <t>Terminé con la identificación del problema.
+Voy a trabajar en el estudio de competidores.</t>
+  </si>
+  <si>
+    <t>Estoy revisando la identificación del problema.</t>
+  </si>
+  <si>
+    <t>Estoy definiendo los interesados potenciales</t>
+  </si>
+  <si>
+    <t>Daily (Lunes 27/09)</t>
+  </si>
+  <si>
+    <t>Daily (Miércoles 29/09)</t>
+  </si>
+  <si>
+    <t>Terminé de trabajar en el estudio de competidores</t>
+  </si>
+  <si>
+    <t>Terminé de definir las funcionalidades por intersado.
+Voy a revisar el mapa de intersados.</t>
+  </si>
+  <si>
+    <t>Sigo con el estudio de competidores.
+Estoy trancada con los competidores directos e indirectos.
+Voy a tratar de definir mejor las categorías.</t>
+  </si>
+  <si>
+    <t>Estoy revisando el estudio de competidores</t>
+  </si>
+  <si>
+    <t>Terminé la identificación de los interesados.</t>
+  </si>
+  <si>
+    <t>Terminé la definición de herramientas de trabajo</t>
+  </si>
+  <si>
+    <t>Terminé la creación del mapa de interesados. Voy a trabajar con Victoria en el estudio de los competidores</t>
+  </si>
+  <si>
+    <t>Estoy revisando la definición de herramientas de trabajo</t>
+  </si>
+  <si>
+    <t>Daily (Viernes 01/10)</t>
+  </si>
+  <si>
+    <t>Se evaluaron los resultados del Sprint. 
+Se validaron todas las tareas completadas.
+Se compartió la definición del problema/solución, el mapa de intersados y el listado de competidores.
+Se compartió el estado del proyecto y se acordó en conjunto sobre qué trabajar en el siguiente Sprint.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,6 +229,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -134,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -157,11 +299,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,9 +401,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -205,8 +419,66 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,6 +492,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E085A8B1-FD7D-4BD8-80AC-2D33A3AD9C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="0"/>
+          <a:ext cx="12334875" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EFE69A-DE92-440F-907D-D581684E7445}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E085A8B1-FD7D-4BD8-80AC-2D33A3AD9C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10982325"/>
+          <a:ext cx="12258675" cy="6038850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44752</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C425E396-8376-4463-839D-1190DF7F4412}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00EFE69A-DE92-440F-907D-D581684E7445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4629150"/>
+          <a:ext cx="12236752" cy="5895975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A575431-FA47-4040-B9B8-639802DCAE3E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C425E396-8376-4463-839D-1190DF7F4412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18135600"/>
+          <a:ext cx="12192000" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EDF61E-C980-4BBE-91FE-BF99B6A32420}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3A575431-FA47-4040-B9B8-639802DCAE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23488650"/>
+          <a:ext cx="12153900" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6A7003-9663-4B46-BB2C-85F62F12801F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{29EDF61E-C980-4BBE-91FE-BF99B6A32420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29156025"/>
+          <a:ext cx="12049125" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,168 +979,215 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="B4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>3</v>
-      </c>
-      <c r="J2" s="10">
-        <v>4</v>
-      </c>
-      <c r="K2" s="10">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Trello!A28" display="Daily meeting" xr:uid="{8BA4C61B-DAB5-403C-8C7A-791453F916F8}"/>
+    <hyperlink ref="E2" location="Trello!A67" display="Daily meeting" xr:uid="{4430D5B3-9E0F-417E-A15D-E4B51ADFCFCD}"/>
+    <hyperlink ref="C2" location="Trello!A1" display="Sprint planning" xr:uid="{8170DBA2-8385-4D44-8EAE-D6E26184BB96}"/>
+    <hyperlink ref="F2" location="Trello!A105" display="Daily meeting" xr:uid="{954D461C-F673-4C81-ACDF-3E08A78520DB}"/>
+    <hyperlink ref="G2" location="Trello!A138" display="Daily meeting" xr:uid="{567D484C-6609-495B-9FF7-D2EC8F050B8F}"/>
+    <hyperlink ref="H2" location="Trello!A173" display="Sprint review" xr:uid="{75648844-5ACF-4C3B-88B6-3FCEF872442D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -606,113 +1209,113 @@
   <sheetData>
     <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -739,113 +1342,113 @@
   <sheetData>
     <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -872,113 +1475,113 @@
   <sheetData>
     <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -987,4 +1590,399 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D779E-1B89-42A6-8B48-E575D427ACB5}">
+  <dimension ref="A1:A176"/>
+  <sheetViews>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:A176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+    </row>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+    </row>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24"/>
+    </row>
+    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24"/>
+    </row>
+    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="24"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="25"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="24"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="24"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="25"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="24"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="24"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A105:A108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F2A4A2B908B80428315048098600911" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0de6742a8aa4af6a86f14c6825b12436">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="017fa494-680b-4af0-b2e3-750edd48b64a" xmlns:ns4="83a202e8-1e8b-4917-a92b-945fd3882671" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93c0d310f569981c65b0a693060c50e" ns3:_="" ns4:_="">
+    <xsd:import namespace="017fa494-680b-4af0-b2e3-750edd48b64a"/>
+    <xsd:import namespace="83a202e8-1e8b-4917-a92b-945fd3882671"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="017fa494-680b-4af0-b2e3-750edd48b64a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="83a202e8-1e8b-4917-a92b-945fd3882671" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED0ADC-9893-4498-BBB0-0E59F240259A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
+    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DEEAE-27E1-4C32-BA1D-D1ECB4840F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52DFA0B-57FF-4123-AD29-7430B14998F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Daily.xlsx
+++ b/Daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Documents\IngSoftwareAgil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fi365-my.sharepoint.com/personal/df201671_fi365_ort_edu_uy/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EAB032-BC88-4055-AA0D-EE2690D10928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163CF8A8-4955-403E-B469-AC65C10C20A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,23 @@
     <sheet name="Iteración 4" sheetId="4" r:id="rId4"/>
     <sheet name="Trello" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Semana 1</t>
   </si>
@@ -32,79 +43,49 @@
     <t>Semana 2</t>
   </si>
   <si>
+    <t>Ceremonia</t>
+  </si>
+  <si>
+    <t>Definición del marco de trabajo</t>
+  </si>
+  <si>
+    <t>Sprint planning</t>
+  </si>
+  <si>
+    <t>Daily meeting</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
+  </si>
+  <si>
+    <t>Sprint retrospective</t>
+  </si>
+  <si>
+    <t>Viernes 17/09</t>
+  </si>
+  <si>
+    <t>Lunes 20/09</t>
+  </si>
+  <si>
+    <t>Miércoles 22/09</t>
+  </si>
+  <si>
+    <t>Viernes 24/09</t>
+  </si>
+  <si>
+    <t>Lunes 27/09</t>
+  </si>
+  <si>
+    <t>Miércoles 29/09</t>
+  </si>
+  <si>
+    <t>Viernes 01/10</t>
+  </si>
+  <si>
+    <t>Lunes 04/10</t>
+  </si>
+  <si>
     <t>Victoria Dieste</t>
-  </si>
-  <si>
-    <t>Gustavo Alfonso</t>
-  </si>
-  <si>
-    <t>Ignacio Vallarino</t>
-  </si>
-  <si>
-    <t>Danilo Fraque</t>
-  </si>
-  <si>
-    <t>Semana 3</t>
-  </si>
-  <si>
-    <t>Semana 4</t>
-  </si>
-  <si>
-    <t>Semana 5</t>
-  </si>
-  <si>
-    <t>Semana 6</t>
-  </si>
-  <si>
-    <t>Semana 7</t>
-  </si>
-  <si>
-    <t>Semana 8</t>
-  </si>
-  <si>
-    <t>Lunes 20/09</t>
-  </si>
-  <si>
-    <t>Miércoles 22/09</t>
-  </si>
-  <si>
-    <t>Viernes 24/09</t>
-  </si>
-  <si>
-    <t>Lunes 27/09</t>
-  </si>
-  <si>
-    <t>Miércoles 29/09</t>
-  </si>
-  <si>
-    <t>Viernes 01/10</t>
-  </si>
-  <si>
-    <t>Ceremonia</t>
-  </si>
-  <si>
-    <t>Viernes 17/09</t>
-  </si>
-  <si>
-    <t>Sprint planning</t>
-  </si>
-  <si>
-    <t>Definición del marco de trabajo</t>
-  </si>
-  <si>
-    <t>Daily meeting</t>
-  </si>
-  <si>
-    <t>Sprint retrospective</t>
-  </si>
-  <si>
-    <t>Sprint review</t>
-  </si>
-  <si>
-    <t>Lunes 04/10</t>
-  </si>
-  <si>
-    <t>Definición del product backlog con épicas, historias de usuario para trabajar en el sprint, criterios de aceptación, estimación de tareas.</t>
   </si>
   <si>
     <t>Se definió el marco general de trabajo. 
@@ -115,19 +96,7 @@
 -  se justificó la adopción de Scrum como marco de trabajo</t>
   </si>
   <si>
-    <t>Daily (Miércoles 22/09)</t>
-  </si>
-  <si>
-    <t>Daily (Viernes 24/09)</t>
-  </si>
-  <si>
-    <t>Esperando por dependencia de tarea.</t>
-  </si>
-  <si>
-    <t>Estoy definiendo las funcionalidades por interesado</t>
-  </si>
-  <si>
-    <t>Estoy creando el mapa de interesados</t>
+    <t>Definición del product backlog con épicas, historias de usuario para trabajar en el sprint, criterios de aceptación, estimación de tareas.</t>
   </si>
   <si>
     <t>Ya definí el problema de forma concreta.
@@ -135,32 +104,8 @@
 Voy a trabajar en acotar la solución.</t>
   </si>
   <si>
-    <t>Confeccioné la lista de interesados.
-Estoy trancado con la identificación de los interesados directos e indirectos.
-Voy a trabajar en clasificarlos.</t>
-  </si>
-  <si>
     <t>Terminé con la identificación del problema.
 Voy a trabajar en el estudio de competidores.</t>
-  </si>
-  <si>
-    <t>Estoy revisando la identificación del problema.</t>
-  </si>
-  <si>
-    <t>Estoy definiendo los interesados potenciales</t>
-  </si>
-  <si>
-    <t>Daily (Lunes 27/09)</t>
-  </si>
-  <si>
-    <t>Daily (Miércoles 29/09)</t>
-  </si>
-  <si>
-    <t>Terminé de trabajar en el estudio de competidores</t>
-  </si>
-  <si>
-    <t>Terminé de definir las funcionalidades por intersado.
-Voy a revisar el mapa de intersados.</t>
   </si>
   <si>
     <t>Sigo con el estudio de competidores.
@@ -168,35 +113,107 @@
 Voy a tratar de definir mejor las categorías.</t>
   </si>
   <si>
-    <t>Estoy revisando el estudio de competidores</t>
-  </si>
-  <si>
-    <t>Terminé la identificación de los interesados.</t>
-  </si>
-  <si>
-    <t>Terminé la definición de herramientas de trabajo</t>
-  </si>
-  <si>
-    <t>Terminé la creación del mapa de interesados. Voy a trabajar con Victoria en el estudio de los competidores</t>
-  </si>
-  <si>
-    <t>Estoy revisando la definición de herramientas de trabajo</t>
-  </si>
-  <si>
-    <t>Daily (Viernes 01/10)</t>
+    <t>Terminé de trabajar en el estudio de competidores</t>
   </si>
   <si>
     <t>Se evaluaron los resultados del Sprint. 
 Se validaron todas las tareas completadas.
 Se compartió la definición del problema/solución, el mapa de intersados y el listado de competidores.
 Se compartió el estado del proyecto y se acordó en conjunto sobre qué trabajar en el siguiente Sprint.</t>
+  </si>
+  <si>
+    <t>Para la siguiente iteración contaremos con mas experiencia por lo que buscaremos mejorar la cantidad de Story points que el equipo pueda resolver. Se aspira a subir la velocidad del equipo de 28 sp a 30 sp. 
+Debemos verificar con más cuidado las dependencias entre historias para evitar tiempo ocioso o reajustes inesperados.
+Redefinición de columnas en trello.
+Se seguirán utilizando las herramientas que se definieron en un principio ya que fueron de gran utilidad y nos permitieron trabajar eficientemente aportando beneficios colaborativos.</t>
+  </si>
+  <si>
+    <t>Gustavo Alfonso</t>
+  </si>
+  <si>
+    <t>Trabajando en acotar solucion.</t>
+  </si>
+  <si>
+    <t>Estoy definiendo las funcionalidades por interesado</t>
+  </si>
+  <si>
+    <t>Terminé de definir las funcionalidades por intersado.
+Voy a revisar el mapa de intersados.</t>
+  </si>
+  <si>
+    <t>Estoy revisando el estudio de competidores</t>
+  </si>
+  <si>
+    <t>Ignacio Vallarino</t>
+  </si>
+  <si>
+    <t>Confeccioné la lista de interesados.
+Estoy trancado con la identificación de los interesados directos e indirectos.
+Voy a trabajar en clasificarlos.</t>
+  </si>
+  <si>
+    <t>Estoy definiendo los interesados potenciales</t>
+  </si>
+  <si>
+    <t>Terminé la identificación de los interesados.</t>
+  </si>
+  <si>
+    <t>Terminé la definición de herramientas de trabajo</t>
+  </si>
+  <si>
+    <t>Danilo Fraque</t>
+  </si>
+  <si>
+    <t>Estoy revisando la identificación del problema.</t>
+  </si>
+  <si>
+    <t>Estoy creando el mapa de interesados</t>
+  </si>
+  <si>
+    <t>Terminé la creación del mapa de interesados. Voy a trabajar con Victoria en el estudio de los competidores</t>
+  </si>
+  <si>
+    <t>Estoy revisando la definición de herramientas de trabajo</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>Semana 5</t>
+  </si>
+  <si>
+    <t>Semana 6</t>
+  </si>
+  <si>
+    <t>Semana 7</t>
+  </si>
+  <si>
+    <t>Semana 8</t>
+  </si>
+  <si>
+    <t>Daily (Miércoles 22/09)</t>
+  </si>
+  <si>
+    <t>Daily (Viernes 24/09)</t>
+  </si>
+  <si>
+    <t>Daily (Lunes 27/09)</t>
+  </si>
+  <si>
+    <t>Daily (Miércoles 29/09)</t>
+  </si>
+  <si>
+    <t>Daily (Viernes 01/10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -276,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -325,12 +342,32 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -362,11 +399,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -378,15 +470,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,13 +487,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,66 +508,96 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,14 +623,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
+        <xdr:cNvPr id="56" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E085A8B1-FD7D-4BD8-80AC-2D33A3AD9C39}"/>
@@ -548,14 +667,14 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 57">
+        <xdr:cNvPr id="119" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EFE69A-DE92-440F-907D-D581684E7445}"/>
@@ -595,14 +714,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>44752</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 59">
+        <xdr:cNvPr id="62" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C425E396-8376-4463-839D-1190DF7F4412}"/>
@@ -642,14 +761,14 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 119">
+        <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A575431-FA47-4040-B9B8-639802DCAE3E}"/>
@@ -689,14 +808,14 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 120">
+        <xdr:cNvPr id="121" name="Picture 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EDF61E-C980-4BBE-91FE-BF99B6A32420}"/>
@@ -736,14 +855,14 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>207</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 121">
+        <xdr:cNvPr id="122" name="Picture 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6A7003-9663-4B46-BB2C-85F62F12801F}"/>
@@ -982,10 +1101,10 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I4" sqref="I4:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -996,79 +1115,80 @@
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="29" style="2" customWidth="1"/>
+    <col min="16384" max="16384" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="16"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -1081,95 +1201,97 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="66" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1201,121 +1323,121 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+    <row r="3" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1334,121 +1456,121 @@
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+    <row r="3" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1464,124 +1586,124 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1596,100 +1718,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D779E-1B89-42A6-8B48-E575D427ACB5}">
   <dimension ref="A1:A176"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A173" sqref="A173:A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-    </row>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-    </row>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-    </row>
-    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-    </row>
-    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="25"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="23" t="s">
+    <row r="1" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" s="40"/>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3" s="40"/>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" s="41"/>
+    </row>
+    <row r="28" spans="1:1" ht="57" customHeight="1">
+      <c r="A28" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A29" s="40"/>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A30" s="40"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A31" s="41"/>
+    </row>
+    <row r="67" spans="1:1" ht="42.75" customHeight="1">
+      <c r="A67" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A68" s="40"/>
+    </row>
+    <row r="69" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A69" s="40"/>
+    </row>
+    <row r="70" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A70" s="41"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="24"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="25"/>
+    <row r="106" spans="1:1">
+      <c r="A106" s="40"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="40"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="41"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="40"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="40"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="41"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="40"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="40"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1929,6 +2046,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1937,52 +2060,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED0ADC-9893-4498-BBB0-0E59F240259A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
-    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED0ADC-9893-4498-BBB0-0E59F240259A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DEEAE-27E1-4C32-BA1D-D1ECB4840F59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52DFA0B-57FF-4123-AD29-7430B14998F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52DFA0B-57FF-4123-AD29-7430B14998F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DEEAE-27E1-4C32-BA1D-D1ECB4840F59}"/>
 </file>
--- a/Daily.xlsx
+++ b/Daily.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fi365-my.sharepoint.com/personal/df201671_fi365_ort_edu_uy/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163CF8A8-4955-403E-B469-AC65C10C20A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{778C0240-FE77-40D4-AE62-B7858F471A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83379D3B-4840-4952-A71B-26C17D2CD32B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteración 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Semana 1</t>
   </si>
@@ -182,6 +182,103 @@
     <t>Semana 4</t>
   </si>
   <si>
+    <t>Martes 5/10</t>
+  </si>
+  <si>
+    <t>jueves 7/10</t>
+  </si>
+  <si>
+    <t>viernes 8/10</t>
+  </si>
+  <si>
+    <t>sábado 9/10</t>
+  </si>
+  <si>
+    <t>lunes 11/10</t>
+  </si>
+  <si>
+    <t>miércoles 13/10</t>
+  </si>
+  <si>
+    <t>viernes 15/10</t>
+  </si>
+  <si>
+    <t>domingo 17/10</t>
+  </si>
+  <si>
+    <t>Se realizo un estudio de diseño para la protipacion de las interfaces de usuario. En este punto se estudian 6 fases para lograr la correcta prototipacion.
+Se definieron las historias que se van a incluir en este sprint con sus narrativas y criterios de aceptación.</t>
+  </si>
+  <si>
+    <t>Estoy trabajando en completmentar la documentación con el estudio de diseño para la prototipación.</t>
+  </si>
+  <si>
+    <t>Sigo trabjando en la documentación. Voy a justificar el uso de las herramientas elegidas.</t>
+  </si>
+  <si>
+    <t>Voy a revisar la interfaz de métricas. Estoy escribiendo el feedback.</t>
+  </si>
+  <si>
+    <t>Voy a revisar la interfaz de alertas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a incorporar los prints de la evolución a la documentación. </t>
+  </si>
+  <si>
+    <t>Se evaluaron los resultados del Sprint 2. 
+Se validaron todas las tareas completadas.
+Se compartieron los prototipos generados y se explicaron las funcionalidades consideradas.
+Se validaron los prototipos con el usuario y se recogió feedback para implementar en la siguiente iteración.</t>
+  </si>
+  <si>
+    <t>Estoy comenzando con el diseño de la interfaz de dosis restantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigo trabajando en el diseño de la interfaz de dosis restantes. Voy a trabajar en emprolijar los departamentos. </t>
+  </si>
+  <si>
+    <t>Terminé con el diseño de interfaz de dosis restantes.
+Voy a revisando la interfaz de home.</t>
+  </si>
+  <si>
+    <t>Voy a incorporar el feedback recibido de la interfaz de diagnóstico y de métricas.</t>
+  </si>
+  <si>
+    <t>Voy a revisar la interfaz de alertas y hacer las modificaciones necesarias.</t>
+  </si>
+  <si>
+    <t>Estoy comenzando con el diseño de la interfaz de métricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigo trabajando en el diseño de la interfaz de métricas. </t>
+  </si>
+  <si>
+    <t>Terminé con el diseño de interfaz de métricas.
+Estoy trabajando en la documentación sobre el mapa de empatía.</t>
+  </si>
+  <si>
+    <t>Voy a incorporar el feedback recibido de la interfaz de home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voy a incorporar el feedback recibido de la interfaz de dosis restantes</t>
+  </si>
+  <si>
+    <t>Estoy comenzando con el diseño de la interfaz de diagnóstico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigo trabajando en el diseño de la interfaz de diagnóstico, tuve dificultades para los efectos de transiciones y tuve que ponerme a investigar. </t>
+  </si>
+  <si>
+    <t>Terminé con el diseño de interfaz de diagnóstico.
+Voy a revisar la interfaz de  dosis restantes.</t>
+  </si>
+  <si>
+    <t>Terminé de revisar la interfaz de dosis restantes y sigo con la de diagnóstico.</t>
+  </si>
+  <si>
+    <t>Estoy revisando la interfaz de diagnósitco con el feedback recibido.</t>
+  </si>
+  <si>
     <t>Semana 5</t>
   </si>
   <si>
@@ -207,13 +304,39 @@
   </si>
   <si>
     <t>Daily (Viernes 01/10)</t>
+  </si>
+  <si>
+    <t>Sprint Planning
+I2</t>
+  </si>
+  <si>
+    <t>Daily (Jueves 7/10)</t>
+  </si>
+  <si>
+    <t>Daily (Viernes 8/10)</t>
+  </si>
+  <si>
+    <t>Daily (Sabado 9/10)</t>
+  </si>
+  <si>
+    <t>Daily (Lunes 11/10)</t>
+  </si>
+  <si>
+    <t>Daily (Miercoles 13/10)</t>
+  </si>
+  <si>
+    <t>Sprint Review (Viernes 15/10)</t>
+  </si>
+  <si>
+    <t>Para el siguiente Sprint pensamos continuar con el mismo ritmo de trabajo.
+En este segundo Sprint ya tenemos más experiencia que en el anterior para calcular los SP de cada historia. También pudimos calcular con cuidado las dependencias de cada tarea por lo que pusimos fechas límites para las primeras tareas para que se puedan completar las siguientes. Seguiremos utilizando las mismas herramientas elegidas más Framer que nos resultó muy útil.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,6 +386,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -470,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -536,6 +666,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,6 +1027,356 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>82627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD0BED9-EB8D-400B-BF47-0DDA5055389C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="35318700"/>
+          <a:ext cx="12058650" cy="7858202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8465</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>157693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>429865</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>37043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF940D4-6468-4097-9F02-3B2330FB715D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="651932" y="43278426"/>
+          <a:ext cx="12003800" cy="7327900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14350</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>14350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>493362</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>130919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7BB095-A586-40F3-8A85-9846856C2B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660113" y="57874689"/>
+          <a:ext cx="12061412" cy="7565119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411875</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FCA5C3-E3C5-473B-8A43-01A0464E2DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="51349275"/>
+          <a:ext cx="11997450" cy="7327900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>102887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E969AF80-CF32-471B-AFB8-1BE6AD26C609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="67379850"/>
+          <a:ext cx="11922125" cy="8364237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32609</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>7175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>281258</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>16123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C641FA9-35A4-43D3-B33E-7D4D3170D937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796675" y="77714655"/>
+          <a:ext cx="11831049" cy="9076748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>291583</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>121432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E75E69-A0C9-4D62-8524-B90C6CDA3408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="764066" y="87289269"/>
+          <a:ext cx="11873983" cy="9274956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1100,41 +1583,41 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F5" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="2" customWidth="1"/>
     <col min="5" max="5" width="28" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.26953125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29" style="2" customWidth="1"/>
-    <col min="16384" max="16384" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="13"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1647,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="50.1" customHeight="1">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -1201,14 +1684,14 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="65.25" customHeight="1">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1223,19 +1706,19 @@
       <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="66" customHeight="1">
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
@@ -1248,15 +1731,15 @@
       <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="64.5" customHeight="1">
+      <c r="H5" s="28"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1269,15 +1752,15 @@
       <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="77.25" customHeight="1">
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
@@ -1290,8 +1773,8 @@
       <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1317,133 +1800,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F75200F-7A6C-426A-948D-F53BF09095AF}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1">
+    <row r="1" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Trello!A211" display="Sprint planning" xr:uid="{2672FF1E-89E3-4A18-975F-EF89346E26A3}"/>
+    <hyperlink ref="C2" location="Trello!A262" display="Daily meeting" xr:uid="{FA68DE8A-E689-4ED2-98F6-20F039335458}"/>
+    <hyperlink ref="D2" location="Trello!A310" display="Daily meeting" xr:uid="{7210FBD4-D508-4F1A-8285-D010790A000C}"/>
+    <hyperlink ref="E2" location="Trello!A359" display="Daily meeting" xr:uid="{35A51A9B-A3E0-46F7-97CC-3077520AF829}"/>
+    <hyperlink ref="F2" location="Trello!A409" display="Daily meeting" xr:uid="{67C419DB-7A60-4B2B-B98C-B750133B2D42}"/>
+    <hyperlink ref="G2" location="Trello!A464" display="Daily meeting" xr:uid="{19C6E31F-EFFC-439D-BD36-0EDF99608B3F}"/>
+    <hyperlink ref="H2" location="Trello!A522" display="Sprint review" xr:uid="{2B859CA1-F1CA-45F0-BAF4-27ACD375C6F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1456,30 +2017,30 @@
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1">
+    <row r="1" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="B1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>1</v>
@@ -1512,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1">
+    <row r="3" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +2088,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1">
+    <row r="4" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1542,7 +2103,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1">
+    <row r="5" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +2118,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1">
+    <row r="6" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1589,30 +2150,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1">
+    <row r="1" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1">
+      <c r="B1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>1</v>
@@ -1645,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +2221,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1675,7 +2236,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +2251,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1716,100 +2277,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D779E-1B89-42A6-8B48-E575D427ACB5}">
-  <dimension ref="A1:A176"/>
+  <dimension ref="A1:A525"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A173" sqref="A173:A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A2" s="40"/>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3" s="40"/>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" s="41"/>
-    </row>
-    <row r="28" spans="1:1" ht="57" customHeight="1">
-      <c r="A28" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A29" s="40"/>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A30" s="40"/>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A31" s="41"/>
-    </row>
-    <row r="67" spans="1:1" ht="42.75" customHeight="1">
-      <c r="A67" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A68" s="40"/>
-    </row>
-    <row r="69" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A69" s="40"/>
-    </row>
-    <row r="70" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A70" s="41"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="40"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="40"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="41"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="40"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="40"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="41"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="40"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="40"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="41"/>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+    </row>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="67" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+    </row>
+    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+    </row>
+    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="42"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="41"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="41"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="42"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="41"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="41"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="42"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="41"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="41"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="42"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="41"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="41"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="42"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="41"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="41"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="42"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="41"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="41"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="42"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="41"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="41"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="42"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="41"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="41"/>
+    </row>
+    <row r="525" spans="1:1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="A464:A467"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A409:A412"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="A173:A176"/>
     <mergeCell ref="A1:A4"/>
@@ -2061,13 +2730,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED0ADC-9893-4498-BBB0-0E59F240259A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED0ADC-9893-4498-BBB0-0E59F240259A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
+    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52DFA0B-57FF-4123-AD29-7430B14998F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52DFA0B-57FF-4123-AD29-7430B14998F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="017fa494-680b-4af0-b2e3-750edd48b64a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="83a202e8-1e8b-4917-a92b-945fd3882671"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DEEAE-27E1-4C32-BA1D-D1ECB4840F59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DEEAE-27E1-4C32-BA1D-D1ECB4840F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>